--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Tablters" sheetId="1" r:id="rId1"/>
-    <sheet name="samrtphones" sheetId="2" r:id="rId2"/>
+    <sheet name="tablets" sheetId="1" r:id="rId1"/>
+    <sheet name="smartphones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>UID</t>
   </si>
@@ -53,45 +53,21 @@
     <t>VOUCHER</t>
   </si>
   <si>
-    <t>tablets</t>
-  </si>
-  <si>
     <t>wer</t>
   </si>
   <si>
     <t>wfer</t>
   </si>
   <si>
-    <t>cwerfwe</t>
-  </si>
-  <si>
     <t>er</t>
   </si>
   <si>
-    <t>tabltes</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
     <t>wede</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>qwer</t>
-  </si>
-  <si>
-    <t>234r23</t>
-  </si>
-  <si>
     <t>wr</t>
   </si>
   <si>
@@ -104,15 +80,6 @@
     <t>dw</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>ttt</t>
-  </si>
-  <si>
     <t>HDMI</t>
   </si>
   <si>
@@ -150,6 +117,48 @@
   </si>
   <si>
     <t>e3e3</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>mini_tablets</t>
+  </si>
+  <si>
+    <t>big_tablets</t>
+  </si>
+  <si>
+    <t>med_tablets</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>iTouch</t>
+  </si>
+  <si>
+    <t>iTrump</t>
+  </si>
+  <si>
+    <t>mini_smart</t>
+  </si>
+  <si>
+    <t>big_smart</t>
+  </si>
+  <si>
+    <t>med_smart</t>
+  </si>
+  <si>
+    <t>chess</t>
+  </si>
+  <si>
+    <t>checkers</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>skate</t>
   </si>
 </sst>
 </file>
@@ -998,12 +1007,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1045,13 +1055,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1059,13 +1069,13 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>234</v>
@@ -1074,31 +1084,31 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1106,13 +1116,13 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>222</v>
@@ -1121,31 +1131,31 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1153,13 +1163,13 @@
         <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>44</v>
@@ -1168,31 +1178,31 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1200,13 +1210,13 @@
         <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>33</v>
@@ -1215,31 +1225,31 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1251,11 +1261,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1295,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1309,13 +1322,13 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>44</v>
@@ -1324,31 +1337,31 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1356,13 +1369,13 @@
         <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>33</v>
@@ -1371,31 +1384,31 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>333</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1403,13 +1416,13 @@
         <v>777</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>234</v>
@@ -1418,31 +1431,31 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1450,13 +1463,13 @@
         <v>888</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>222</v>
@@ -1465,31 +1478,31 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5">
         <v>333</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\step\launchweb\price_comparison\wp-content\themes\compare-responsive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tablets" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>UID</t>
   </si>
@@ -56,9 +61,6 @@
     <t>wer</t>
   </si>
   <si>
-    <t>wfer</t>
-  </si>
-  <si>
     <t>er</t>
   </si>
   <si>
@@ -68,9 +70,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>wr</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -107,30 +106,12 @@
     <t>no</t>
   </si>
   <si>
-    <t>HEY HO</t>
-  </si>
-  <si>
-    <t>LERE</t>
-  </si>
-  <si>
-    <t>wedwedwe</t>
-  </si>
-  <si>
     <t>e3e3</t>
   </si>
   <si>
     <t>iPhone</t>
   </si>
   <si>
-    <t>mini_tablets</t>
-  </si>
-  <si>
-    <t>big_tablets</t>
-  </si>
-  <si>
-    <t>med_tablets</t>
-  </si>
-  <si>
     <t>iPad</t>
   </si>
   <si>
@@ -140,15 +121,6 @@
     <t>iTrump</t>
   </si>
   <si>
-    <t>mini_smart</t>
-  </si>
-  <si>
-    <t>big_smart</t>
-  </si>
-  <si>
-    <t>med_smart</t>
-  </si>
-  <si>
     <t>chess</t>
   </si>
   <si>
@@ -159,6 +131,132 @@
   </si>
   <si>
     <t>skate</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Samchung</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>e3rrr</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>Something else</t>
+  </si>
+  <si>
+    <t>Hello There</t>
+  </si>
+  <si>
+    <t>Some Category</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>iPad2</t>
+  </si>
+  <si>
+    <t>iTouch2</t>
+  </si>
+  <si>
+    <t>iTrump2</t>
+  </si>
+  <si>
+    <t>55a</t>
+  </si>
+  <si>
+    <t>66a</t>
+  </si>
+  <si>
+    <t>77a</t>
+  </si>
+  <si>
+    <t>555b</t>
+  </si>
+  <si>
+    <t>666b</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>uuu</t>
+  </si>
+  <si>
+    <t>https://66.media.tumblr.com/avatar_0fe05f18bb2d_128.png</t>
+  </si>
+  <si>
+    <t>https://recodetech.files.wordpress.com/2014/07/south-park.jpg?quality=80&amp;strip=info&amp;w=256&amp;h=256&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://avatarko.ru/img/kartinka/1/South_Park_Stan.png</t>
+  </si>
+  <si>
+    <t>777b</t>
+  </si>
+  <si>
+    <t>888b</t>
+  </si>
+  <si>
+    <t>999b</t>
+  </si>
+  <si>
+    <t>1212bb</t>
+  </si>
+  <si>
+    <t>1314b</t>
+  </si>
+  <si>
+    <t>checkers1</t>
+  </si>
+  <si>
+    <t>ski1</t>
+  </si>
+  <si>
+    <t>skate1</t>
   </si>
 </sst>
 </file>
@@ -661,28 +759,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -713,6 +817,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -761,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,7 +903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,251 +1112,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>222</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>222</v>
+      </c>
+      <c r="F3" s="1">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>333</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>444</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>234</v>
-      </c>
-      <c r="F2">
+      <c r="E6" s="1">
+        <v>222</v>
+      </c>
+      <c r="F6" s="1">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
+      <c r="P7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>222</v>
-      </c>
-      <c r="F3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>333</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>44</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>444</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1259,253 +1533,421 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>555</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>234</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
         <v>44</v>
       </c>
-      <c r="E2">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
+        <v>222</v>
+      </c>
+      <c r="F5" s="1">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1">
+        <v>333</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>234</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1">
+        <v>222</v>
+      </c>
+      <c r="F8" s="1">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>666</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>33</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1">
         <v>333</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>777</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>234</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>888</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>222</v>
-      </c>
-      <c r="F5">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>333</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
+      <c r="P8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tablets" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="74">
   <si>
     <t>UID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>wer</t>
   </si>
   <si>
-    <t>wfer</t>
-  </si>
-  <si>
     <t>er</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>wr</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -159,6 +153,90 @@
   </si>
   <si>
     <t>skate</t>
+  </si>
+  <si>
+    <t>iPhone2</t>
+  </si>
+  <si>
+    <t>iPad2</t>
+  </si>
+  <si>
+    <t>iTouch2</t>
+  </si>
+  <si>
+    <t>iTrump2</t>
+  </si>
+  <si>
+    <t>iPhone3</t>
+  </si>
+  <si>
+    <t>iPad3</t>
+  </si>
+  <si>
+    <t>iTrump3</t>
+  </si>
+  <si>
+    <t>iTouch3</t>
+  </si>
+  <si>
+    <t>chess2</t>
+  </si>
+  <si>
+    <t>checkers2</t>
+  </si>
+  <si>
+    <t>ski2</t>
+  </si>
+  <si>
+    <t>skate2</t>
+  </si>
+  <si>
+    <t>chess3</t>
+  </si>
+  <si>
+    <t>checkers3</t>
+  </si>
+  <si>
+    <t>ski3</t>
+  </si>
+  <si>
+    <t>skate3</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn1.gstatic.com/images?q=tbn:ANd9GcRC1v-kuIpEoe_p9woW6jF4YYvuNux70nDbejc2ovfPHkU4WcgC</t>
+  </si>
+  <si>
+    <t>https://avatarko.ru/img/kartinka/1/South_Park_Stan.png</t>
+  </si>
+  <si>
+    <t>http://orig07.deviantart.net/b10e/f/2013/175/6/1/south_park_by_alpine1987-d6aewg6.png</t>
+  </si>
+  <si>
+    <t>http://addons.kodi.tv/addon-data/cache/Addons/plugin.video.southpark_unofficial/icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Mr-Biggles-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Marjorine-head-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Squirrel-head-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Pre-School-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Professor-Chaos-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Butters-Professor-Chaos-head-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Randy-Marsh-Guitar-Hero-4-icon.png</t>
+  </si>
+  <si>
+    <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Randy-Marsh-Jamming-icon.png</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,13 +1133,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1069,22 +1147,22 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1105,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1116,13 +1194,13 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>222</v>
@@ -1131,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -1146,16 +1224,16 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1163,22 +1241,22 @@
         <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="F4">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1187,22 +1265,22 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1210,46 +1288,422 @@
         <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>644</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>855</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>1066</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
-        <v>29</v>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>777</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>1277</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>1488</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>1699</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>1910</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>2121</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>2332</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1259,15 +1713,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1308,36 +1762,36 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1346,92 +1800,92 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>666</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>333</v>
       </c>
       <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>777</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1449,36 +1903,36 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>888</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1493,16 +1947,392 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>333</v>
       </c>
       <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
-        <v>29</v>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>333</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>333</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>333</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>333</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\step\launchweb\price_comparison\wp-content\themes\compare-responsive\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="22620" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="tablets" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
   <si>
     <t>UID</t>
   </si>
@@ -59,15 +64,9 @@
     <t>er</t>
   </si>
   <si>
-    <t>wede</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>aaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
   <si>
@@ -237,13 +236,58 @@
   </si>
   <si>
     <t>http://icons.iconarchive.com/icons/sykonist/south-park/256/Randy-Marsh-Jamming-icon.png</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 11</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 22</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 33</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 44</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 55</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 66</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 77</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 88</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 99</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 110</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 121</t>
+  </si>
+  <si>
+    <t>Lorem ipsum 132</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>wdw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +440,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -739,28 +790,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -791,6 +843,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -839,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,14 +1140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G2:G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,13 +1187,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1147,13 +1201,13 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1162,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1171,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1183,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1194,13 +1248,13 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>222</v>
@@ -1209,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -1218,22 +1272,22 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1241,13 +1295,13 @@
         <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>433</v>
@@ -1256,31 +1310,31 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1288,13 +1342,13 @@
         <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>644</v>
@@ -1303,31 +1357,31 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1335,13 +1389,13 @@
         <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>855</v>
@@ -1350,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1359,10 +1413,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -1371,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
         <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1382,13 +1436,13 @@
         <v>666</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1066</v>
@@ -1397,7 +1451,7 @@
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1406,22 +1460,22 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
         <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1429,13 +1483,13 @@
         <v>777</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1277</v>
@@ -1444,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1476,13 +1530,13 @@
         <v>888</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>1488</v>
@@ -1491,31 +1545,31 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
         <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1523,13 +1577,13 @@
         <v>999</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>1699</v>
@@ -1538,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1547,10 +1601,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -1559,10 +1613,10 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
         <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1570,13 +1624,13 @@
         <v>1110</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>1910</v>
@@ -1585,7 +1639,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1594,22 +1648,22 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
         <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1617,13 +1671,13 @@
         <v>1221</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>2121</v>
@@ -1632,31 +1686,31 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
         <v>24</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1664,13 +1718,13 @@
         <v>1332</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>2332</v>
@@ -1679,35 +1733,36 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
         <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1715,13 +1770,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="102" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1762,13 +1819,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1776,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1791,7 +1848,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1800,22 +1857,22 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1823,13 +1880,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1838,31 +1895,31 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>333</v>
       </c>
       <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1870,13 +1927,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1885,31 +1942,31 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1917,13 +1974,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1932,19 +1989,19 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -1953,10 +2010,10 @@
         <v>333</v>
       </c>
       <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1964,13 +2021,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1979,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1988,22 +2045,22 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
         <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2011,13 +2068,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2026,31 +2083,31 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
       </c>
       <c r="M7">
         <v>333</v>
       </c>
       <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
         <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2058,13 +2115,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2073,31 +2130,31 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2105,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2120,19 +2177,19 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
@@ -2141,10 +2198,10 @@
         <v>333</v>
       </c>
       <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
         <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2152,13 +2209,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2167,7 +2224,7 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -2176,22 +2233,22 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
         <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2199,13 +2256,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2214,31 +2271,31 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
       <c r="M11">
         <v>333</v>
       </c>
       <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
         <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2246,13 +2303,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2261,31 +2318,31 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
         <v>24</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2293,13 +2350,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2308,19 +2365,19 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -2329,10 +2386,10 @@
         <v>333</v>
       </c>
       <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
         <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
